--- a/output/3_Regression/h23/h23table_rmse.xlsx
+++ b/output/3_Regression/h23/h23table_rmse.xlsx
@@ -556,7 +556,7 @@
         <v>0.01470716417051849</v>
       </c>
       <c r="G7">
-        <v>0.1545817901168716</v>
+        <v>0.1545817901168717</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -648,7 +648,7 @@
         <v>0.01843846133408237</v>
       </c>
       <c r="G11">
-        <v>0.0903311060312602</v>
+        <v>0.09033110603126018</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -671,7 +671,7 @@
         <v>0.01852166990594624</v>
       </c>
       <c r="G12">
-        <v>0.0850681115811739</v>
+        <v>0.08506811158117389</v>
       </c>
     </row>
     <row r="13" spans="1:7">
